--- a/template_sekundarstufe_1-backup.xlsx
+++ b/template_sekundarstufe_1-backup.xlsx
@@ -360,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,28 +418,316 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27 (87.1%)</t>
+          <t>22 (71.0%)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Student B</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>47 (151.6%)</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Student C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>17 (54.8%)</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Student D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9 (29.0%)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Student E</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3 (9.7%)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Student F</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>27 (87.1%)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Student G</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13 (41.9%)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Student H</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19 (61.3%)</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Student I</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20 (64.5%)</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Student J</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22 (71.0%)</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,7 +843,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Points</t>
+          <t>Min Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Max Points</t>
         </is>
       </c>
     </row>
@@ -571,6 +864,9 @@
       <c r="C2" t="n">
         <v>26.5</v>
       </c>
+      <c r="D2" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -584,6 +880,9 @@
       <c r="C3" t="n">
         <v>21.5</v>
       </c>
+      <c r="D3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -597,6 +896,9 @@
       <c r="C4" t="n">
         <v>17</v>
       </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -610,6 +912,9 @@
       <c r="C5" t="n">
         <v>12.5</v>
       </c>
+      <c r="D5" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -623,6 +928,9 @@
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -635,6 +943,9 @@
       </c>
       <c r="C7" t="n">
         <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/template_sekundarstufe_1-backup.xlsx
+++ b/template_sekundarstufe_1-backup.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>47 (151.6%)</t>
+          <t>27 (87.1%)</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -514,19 +514,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9 (29.0%)</t>
+          <t>14 (45.2%)</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>

--- a/template_sekundarstufe_1-backup.xlsx
+++ b/template_sekundarstufe_1-backup.xlsx
@@ -514,19 +514,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14 (45.2%)</t>
+          <t>9 (29.0%)</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
